--- a/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Customer_Management_System.xlsx
+++ b/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Customer_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{931937FD-BA96-4192-A288-D03F2BAE919B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE85E35-646E-4637-99CC-CDF1CAA79F14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -44,104 +44,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="S55" authorId="0" shapeId="0" xr:uid="{39E28B38-5DF0-48B9-8A1F-DBA26334F2CA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-枠内に収まっていない単語が
-何箇所かありますので
-枠に収まるよう修正をお願いします。
-「要件定義書」
-「SI Object Browser ER EDM」
-・凡例の項目、等</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH74" authorId="0" shapeId="0" xr:uid="{52A3CC1E-E20E-4FEC-89FA-0690C968C5E7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「成果物」は「deliverables」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z101" authorId="0" shapeId="0" xr:uid="{36598173-8C49-468D-8708-54D5E1E20F2C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-枠内に収まっていない単語が
-何箇所かありますので
-枠に収まるよう修正をお願いします。
-「要件定義書」
-「SI Object Browser ER EDM」
-・凡例の項目、等</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="199">
   <si>
@@ -686,9 +588,6 @@
     <t>Sheet name</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>Application</t>
   </si>
   <si>
@@ -744,6 +643,10 @@
   </si>
   <si>
     <t>[3] Describe "2.2 System-specific validation", and define a project-specific validation to scrutinize the value of the domain defined in procedure (1).</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Required</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -755,7 +658,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1047,21 +950,6 @@
       <color indexed="55"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2650,7 +2538,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3865,8 +3753,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2903157" y="15958102"/>
-          <a:ext cx="1498871" cy="1267224"/>
+          <a:off x="2934907" y="16643902"/>
+          <a:ext cx="1517921" cy="1318024"/>
           <a:chOff x="3536661" y="8131330"/>
           <a:chExt cx="1522826" cy="1267664"/>
         </a:xfrm>
@@ -6490,8 +6378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7750175" y="9556750"/>
-          <a:ext cx="1187579" cy="2023167"/>
+          <a:off x="7839075" y="9963150"/>
+          <a:ext cx="1200279" cy="2112067"/>
           <a:chOff x="11958878" y="16511691"/>
           <a:chExt cx="1535831" cy="2007553"/>
         </a:xfrm>
@@ -7281,8 +7169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7740650" y="16322675"/>
-          <a:ext cx="1187579" cy="2023167"/>
+          <a:off x="7829550" y="17021175"/>
+          <a:ext cx="1200279" cy="2112067"/>
           <a:chOff x="11958878" y="16511691"/>
           <a:chExt cx="1535831" cy="2007553"/>
         </a:xfrm>
@@ -8500,42 +8388,42 @@
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -8546,7 +8434,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -8555,7 +8443,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -8567,7 +8455,7 @@
       <c r="K25" s="119"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -8576,7 +8464,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -8585,7 +8473,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -8594,7 +8482,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="22"/>
@@ -8602,7 +8490,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -8611,7 +8499,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -8620,7 +8508,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="6:12" ht="19">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -8629,7 +8517,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="6:19" ht="19">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="22"/>
@@ -8641,7 +8529,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="19">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="22"/>
@@ -8656,515 +8544,515 @@
       <c r="R34" s="123"/>
       <c r="S34" s="123"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="123"/>
       <c r="R35" s="123"/>
       <c r="S35" s="123"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="124"/>
       <c r="P36" s="123"/>
       <c r="Q36" s="124"/>
       <c r="R36" s="123"/>
       <c r="S36" s="16"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="120"/>
       <c r="P37" s="121"/>
       <c r="Q37" s="120"/>
       <c r="R37" s="121"/>
       <c r="S37" s="120"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="121"/>
       <c r="P38" s="121"/>
       <c r="Q38" s="121"/>
       <c r="R38" s="121"/>
       <c r="S38" s="121"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="121"/>
       <c r="P39" s="121"/>
       <c r="Q39" s="121"/>
       <c r="R39" s="121"/>
       <c r="S39" s="121"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -9192,12 +9080,12 @@
       <selection activeCell="D9" sqref="D9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="19"/>
+    <col min="1" max="16384" width="4.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="125" t="s">
         <v>31</v>
       </c>
@@ -9255,7 +9143,7 @@
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="125" t="s">
         <v>36</v>
       </c>
@@ -9309,7 +9197,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="125" t="s">
         <v>39</v>
       </c>
@@ -9353,7 +9241,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -9395,7 +9283,7 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
     </row>
-    <row r="5" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -9439,7 +9327,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -9481,7 +9369,7 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>41</v>
       </c>
@@ -9537,7 +9425,7 @@
       <c r="AM7" s="29"/>
       <c r="AN7" s="29"/>
     </row>
-    <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>1</v>
       </c>
@@ -9593,7 +9481,7 @@
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
     </row>
-    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="163"/>
       <c r="C9" s="164"/>
@@ -9635,7 +9523,7 @@
       <c r="AM9" s="29"/>
       <c r="AN9" s="29"/>
     </row>
-    <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="163"/>
       <c r="C10" s="164"/>
@@ -9677,7 +9565,7 @@
       <c r="AM10" s="29"/>
       <c r="AN10" s="29"/>
     </row>
-    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="163"/>
       <c r="C11" s="164"/>
@@ -9719,7 +9607,7 @@
       <c r="AM11" s="29"/>
       <c r="AN11" s="29"/>
     </row>
-    <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="163"/>
       <c r="C12" s="164"/>
@@ -9761,7 +9649,7 @@
       <c r="AM12" s="29"/>
       <c r="AN12" s="29"/>
     </row>
-    <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="163"/>
       <c r="C13" s="164"/>
@@ -9803,7 +9691,7 @@
       <c r="AM13" s="29"/>
       <c r="AN13" s="29"/>
     </row>
-    <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="163"/>
       <c r="C14" s="164"/>
@@ -9845,7 +9733,7 @@
       <c r="AM14" s="29"/>
       <c r="AN14" s="29"/>
     </row>
-    <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="163"/>
       <c r="C15" s="164"/>
@@ -9887,7 +9775,7 @@
       <c r="AM15" s="29"/>
       <c r="AN15" s="29"/>
     </row>
-    <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="163"/>
       <c r="C16" s="164"/>
@@ -9929,7 +9817,7 @@
       <c r="AM16" s="29"/>
       <c r="AN16" s="29"/>
     </row>
-    <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="163"/>
       <c r="C17" s="164"/>
@@ -9971,7 +9859,7 @@
       <c r="AM17" s="29"/>
       <c r="AN17" s="29"/>
     </row>
-    <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="163"/>
       <c r="C18" s="164"/>
@@ -10013,7 +9901,7 @@
       <c r="AM18" s="29"/>
       <c r="AN18" s="29"/>
     </row>
-    <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="163"/>
       <c r="C19" s="164"/>
@@ -10055,7 +9943,7 @@
       <c r="AM19" s="29"/>
       <c r="AN19" s="29"/>
     </row>
-    <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="163"/>
       <c r="C20" s="164"/>
@@ -10097,7 +9985,7 @@
       <c r="AM20" s="29"/>
       <c r="AN20" s="29"/>
     </row>
-    <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="163"/>
       <c r="C21" s="164"/>
@@ -10139,7 +10027,7 @@
       <c r="AM21" s="29"/>
       <c r="AN21" s="29"/>
     </row>
-    <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="163"/>
       <c r="C22" s="164"/>
@@ -10181,7 +10069,7 @@
       <c r="AM22" s="29"/>
       <c r="AN22" s="29"/>
     </row>
-    <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="B23" s="163"/>
       <c r="C23" s="164"/>
@@ -10223,7 +10111,7 @@
       <c r="AM23" s="29"/>
       <c r="AN23" s="29"/>
     </row>
-    <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="163"/>
       <c r="C24" s="164"/>
@@ -10265,7 +10153,7 @@
       <c r="AM24" s="29"/>
       <c r="AN24" s="29"/>
     </row>
-    <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="163"/>
       <c r="C25" s="164"/>
@@ -10307,7 +10195,7 @@
       <c r="AM25" s="29"/>
       <c r="AN25" s="29"/>
     </row>
-    <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="163"/>
       <c r="C26" s="164"/>
@@ -10349,7 +10237,7 @@
       <c r="AM26" s="29"/>
       <c r="AN26" s="29"/>
     </row>
-    <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="163"/>
       <c r="C27" s="164"/>
@@ -10391,7 +10279,7 @@
       <c r="AM27" s="29"/>
       <c r="AN27" s="29"/>
     </row>
-    <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="163"/>
       <c r="C28" s="164"/>
@@ -10433,7 +10321,7 @@
       <c r="AM28" s="29"/>
       <c r="AN28" s="29"/>
     </row>
-    <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="163"/>
       <c r="C29" s="164"/>
@@ -10475,7 +10363,7 @@
       <c r="AM29" s="29"/>
       <c r="AN29" s="29"/>
     </row>
-    <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="163"/>
       <c r="C30" s="164"/>
@@ -10517,7 +10405,7 @@
       <c r="AM30" s="29"/>
       <c r="AN30" s="29"/>
     </row>
-    <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="163"/>
       <c r="C31" s="164"/>
@@ -10559,7 +10447,7 @@
       <c r="AM31" s="29"/>
       <c r="AN31" s="29"/>
     </row>
-    <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="163"/>
       <c r="C32" s="164"/>
@@ -10601,7 +10489,7 @@
       <c r="AM32" s="29"/>
       <c r="AN32" s="29"/>
     </row>
-    <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="163"/>
       <c r="C33" s="164"/>
@@ -10643,7 +10531,7 @@
       <c r="AM33" s="29"/>
       <c r="AN33" s="29"/>
     </row>
-    <row r="34" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -10685,7 +10573,7 @@
       <c r="AM34" s="29"/>
       <c r="AN34" s="29"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -10925,142 +10813,142 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="84" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="94" customWidth="1"/>
-    <col min="18" max="33" width="4.77734375" style="84" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" style="94" customWidth="1"/>
-    <col min="35" max="256" width="4.77734375" style="84"/>
-    <col min="257" max="290" width="4.77734375" style="84" customWidth="1"/>
-    <col min="291" max="512" width="4.77734375" style="84"/>
-    <col min="513" max="546" width="4.77734375" style="84" customWidth="1"/>
-    <col min="547" max="768" width="4.77734375" style="84"/>
-    <col min="769" max="802" width="4.77734375" style="84" customWidth="1"/>
-    <col min="803" max="1024" width="4.77734375" style="84"/>
-    <col min="1025" max="1058" width="4.77734375" style="84" customWidth="1"/>
-    <col min="1059" max="1280" width="4.77734375" style="84"/>
-    <col min="1281" max="1314" width="4.77734375" style="84" customWidth="1"/>
-    <col min="1315" max="1536" width="4.77734375" style="84"/>
-    <col min="1537" max="1570" width="4.77734375" style="84" customWidth="1"/>
-    <col min="1571" max="1792" width="4.77734375" style="84"/>
-    <col min="1793" max="1826" width="4.77734375" style="84" customWidth="1"/>
-    <col min="1827" max="2048" width="4.77734375" style="84"/>
-    <col min="2049" max="2082" width="4.77734375" style="84" customWidth="1"/>
-    <col min="2083" max="2304" width="4.77734375" style="84"/>
-    <col min="2305" max="2338" width="4.77734375" style="84" customWidth="1"/>
-    <col min="2339" max="2560" width="4.77734375" style="84"/>
-    <col min="2561" max="2594" width="4.77734375" style="84" customWidth="1"/>
-    <col min="2595" max="2816" width="4.77734375" style="84"/>
-    <col min="2817" max="2850" width="4.77734375" style="84" customWidth="1"/>
-    <col min="2851" max="3072" width="4.77734375" style="84"/>
-    <col min="3073" max="3106" width="4.77734375" style="84" customWidth="1"/>
-    <col min="3107" max="3328" width="4.77734375" style="84"/>
-    <col min="3329" max="3362" width="4.77734375" style="84" customWidth="1"/>
-    <col min="3363" max="3584" width="4.77734375" style="84"/>
-    <col min="3585" max="3618" width="4.77734375" style="84" customWidth="1"/>
-    <col min="3619" max="3840" width="4.77734375" style="84"/>
-    <col min="3841" max="3874" width="4.77734375" style="84" customWidth="1"/>
-    <col min="3875" max="4096" width="4.77734375" style="84"/>
-    <col min="4097" max="4130" width="4.77734375" style="84" customWidth="1"/>
-    <col min="4131" max="4352" width="4.77734375" style="84"/>
-    <col min="4353" max="4386" width="4.77734375" style="84" customWidth="1"/>
-    <col min="4387" max="4608" width="4.77734375" style="84"/>
-    <col min="4609" max="4642" width="4.77734375" style="84" customWidth="1"/>
-    <col min="4643" max="4864" width="4.77734375" style="84"/>
-    <col min="4865" max="4898" width="4.77734375" style="84" customWidth="1"/>
-    <col min="4899" max="5120" width="4.77734375" style="84"/>
-    <col min="5121" max="5154" width="4.77734375" style="84" customWidth="1"/>
-    <col min="5155" max="5376" width="4.77734375" style="84"/>
-    <col min="5377" max="5410" width="4.77734375" style="84" customWidth="1"/>
-    <col min="5411" max="5632" width="4.77734375" style="84"/>
-    <col min="5633" max="5666" width="4.77734375" style="84" customWidth="1"/>
-    <col min="5667" max="5888" width="4.77734375" style="84"/>
-    <col min="5889" max="5922" width="4.77734375" style="84" customWidth="1"/>
-    <col min="5923" max="6144" width="4.77734375" style="84"/>
-    <col min="6145" max="6178" width="4.77734375" style="84" customWidth="1"/>
-    <col min="6179" max="6400" width="4.77734375" style="84"/>
-    <col min="6401" max="6434" width="4.77734375" style="84" customWidth="1"/>
-    <col min="6435" max="6656" width="4.77734375" style="84"/>
-    <col min="6657" max="6690" width="4.77734375" style="84" customWidth="1"/>
-    <col min="6691" max="6912" width="4.77734375" style="84"/>
-    <col min="6913" max="6946" width="4.77734375" style="84" customWidth="1"/>
-    <col min="6947" max="7168" width="4.77734375" style="84"/>
-    <col min="7169" max="7202" width="4.77734375" style="84" customWidth="1"/>
-    <col min="7203" max="7424" width="4.77734375" style="84"/>
-    <col min="7425" max="7458" width="4.77734375" style="84" customWidth="1"/>
-    <col min="7459" max="7680" width="4.77734375" style="84"/>
-    <col min="7681" max="7714" width="4.77734375" style="84" customWidth="1"/>
-    <col min="7715" max="7936" width="4.77734375" style="84"/>
-    <col min="7937" max="7970" width="4.77734375" style="84" customWidth="1"/>
-    <col min="7971" max="8192" width="4.77734375" style="84"/>
-    <col min="8193" max="8226" width="4.77734375" style="84" customWidth="1"/>
-    <col min="8227" max="8448" width="4.77734375" style="84"/>
-    <col min="8449" max="8482" width="4.77734375" style="84" customWidth="1"/>
-    <col min="8483" max="8704" width="4.77734375" style="84"/>
-    <col min="8705" max="8738" width="4.77734375" style="84" customWidth="1"/>
-    <col min="8739" max="8960" width="4.77734375" style="84"/>
-    <col min="8961" max="8994" width="4.77734375" style="84" customWidth="1"/>
-    <col min="8995" max="9216" width="4.77734375" style="84"/>
-    <col min="9217" max="9250" width="4.77734375" style="84" customWidth="1"/>
-    <col min="9251" max="9472" width="4.77734375" style="84"/>
-    <col min="9473" max="9506" width="4.77734375" style="84" customWidth="1"/>
-    <col min="9507" max="9728" width="4.77734375" style="84"/>
-    <col min="9729" max="9762" width="4.77734375" style="84" customWidth="1"/>
-    <col min="9763" max="9984" width="4.77734375" style="84"/>
-    <col min="9985" max="10018" width="4.77734375" style="84" customWidth="1"/>
-    <col min="10019" max="10240" width="4.77734375" style="84"/>
-    <col min="10241" max="10274" width="4.77734375" style="84" customWidth="1"/>
-    <col min="10275" max="10496" width="4.77734375" style="84"/>
-    <col min="10497" max="10530" width="4.77734375" style="84" customWidth="1"/>
-    <col min="10531" max="10752" width="4.77734375" style="84"/>
-    <col min="10753" max="10786" width="4.77734375" style="84" customWidth="1"/>
-    <col min="10787" max="11008" width="4.77734375" style="84"/>
-    <col min="11009" max="11042" width="4.77734375" style="84" customWidth="1"/>
-    <col min="11043" max="11264" width="4.77734375" style="84"/>
-    <col min="11265" max="11298" width="4.77734375" style="84" customWidth="1"/>
-    <col min="11299" max="11520" width="4.77734375" style="84"/>
-    <col min="11521" max="11554" width="4.77734375" style="84" customWidth="1"/>
-    <col min="11555" max="11776" width="4.77734375" style="84"/>
-    <col min="11777" max="11810" width="4.77734375" style="84" customWidth="1"/>
-    <col min="11811" max="12032" width="4.77734375" style="84"/>
-    <col min="12033" max="12066" width="4.77734375" style="84" customWidth="1"/>
-    <col min="12067" max="12288" width="4.77734375" style="84"/>
-    <col min="12289" max="12322" width="4.77734375" style="84" customWidth="1"/>
-    <col min="12323" max="12544" width="4.77734375" style="84"/>
-    <col min="12545" max="12578" width="4.77734375" style="84" customWidth="1"/>
-    <col min="12579" max="12800" width="4.77734375" style="84"/>
-    <col min="12801" max="12834" width="4.77734375" style="84" customWidth="1"/>
-    <col min="12835" max="13056" width="4.77734375" style="84"/>
-    <col min="13057" max="13090" width="4.77734375" style="84" customWidth="1"/>
-    <col min="13091" max="13312" width="4.77734375" style="84"/>
-    <col min="13313" max="13346" width="4.77734375" style="84" customWidth="1"/>
-    <col min="13347" max="13568" width="4.77734375" style="84"/>
-    <col min="13569" max="13602" width="4.77734375" style="84" customWidth="1"/>
-    <col min="13603" max="13824" width="4.77734375" style="84"/>
-    <col min="13825" max="13858" width="4.77734375" style="84" customWidth="1"/>
-    <col min="13859" max="14080" width="4.77734375" style="84"/>
-    <col min="14081" max="14114" width="4.77734375" style="84" customWidth="1"/>
-    <col min="14115" max="14336" width="4.77734375" style="84"/>
-    <col min="14337" max="14370" width="4.77734375" style="84" customWidth="1"/>
-    <col min="14371" max="14592" width="4.77734375" style="84"/>
-    <col min="14593" max="14626" width="4.77734375" style="84" customWidth="1"/>
-    <col min="14627" max="14848" width="4.77734375" style="84"/>
-    <col min="14849" max="14882" width="4.77734375" style="84" customWidth="1"/>
-    <col min="14883" max="15104" width="4.77734375" style="84"/>
-    <col min="15105" max="15138" width="4.77734375" style="84" customWidth="1"/>
-    <col min="15139" max="15360" width="4.77734375" style="84"/>
-    <col min="15361" max="15394" width="4.77734375" style="84" customWidth="1"/>
-    <col min="15395" max="15616" width="4.77734375" style="84"/>
-    <col min="15617" max="15650" width="4.77734375" style="84" customWidth="1"/>
-    <col min="15651" max="15872" width="4.77734375" style="84"/>
-    <col min="15873" max="15906" width="4.77734375" style="84" customWidth="1"/>
-    <col min="15907" max="16128" width="4.77734375" style="84"/>
-    <col min="16129" max="16162" width="4.77734375" style="84" customWidth="1"/>
-    <col min="16163" max="16384" width="4.77734375" style="84"/>
+    <col min="1" max="16" width="4.83203125" style="84" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="94" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="84" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="94" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="84"/>
+    <col min="257" max="290" width="4.83203125" style="84" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="84"/>
+    <col min="513" max="546" width="4.83203125" style="84" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="84"/>
+    <col min="769" max="802" width="4.83203125" style="84" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="84"/>
+    <col min="1025" max="1058" width="4.83203125" style="84" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="84"/>
+    <col min="1281" max="1314" width="4.83203125" style="84" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="84"/>
+    <col min="1537" max="1570" width="4.83203125" style="84" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="84"/>
+    <col min="1793" max="1826" width="4.83203125" style="84" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="84"/>
+    <col min="2049" max="2082" width="4.83203125" style="84" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="84"/>
+    <col min="2305" max="2338" width="4.83203125" style="84" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="84"/>
+    <col min="2561" max="2594" width="4.83203125" style="84" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="84"/>
+    <col min="2817" max="2850" width="4.83203125" style="84" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="84"/>
+    <col min="3073" max="3106" width="4.83203125" style="84" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="84"/>
+    <col min="3329" max="3362" width="4.83203125" style="84" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="84"/>
+    <col min="3585" max="3618" width="4.83203125" style="84" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="84"/>
+    <col min="3841" max="3874" width="4.83203125" style="84" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="84"/>
+    <col min="4097" max="4130" width="4.83203125" style="84" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="84"/>
+    <col min="4353" max="4386" width="4.83203125" style="84" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="84"/>
+    <col min="4609" max="4642" width="4.83203125" style="84" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="84"/>
+    <col min="4865" max="4898" width="4.83203125" style="84" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="84"/>
+    <col min="5121" max="5154" width="4.83203125" style="84" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="84"/>
+    <col min="5377" max="5410" width="4.83203125" style="84" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="84"/>
+    <col min="5633" max="5666" width="4.83203125" style="84" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="84"/>
+    <col min="5889" max="5922" width="4.83203125" style="84" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="84"/>
+    <col min="6145" max="6178" width="4.83203125" style="84" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="84"/>
+    <col min="6401" max="6434" width="4.83203125" style="84" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="84"/>
+    <col min="6657" max="6690" width="4.83203125" style="84" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="84"/>
+    <col min="6913" max="6946" width="4.83203125" style="84" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="84"/>
+    <col min="7169" max="7202" width="4.83203125" style="84" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="84"/>
+    <col min="7425" max="7458" width="4.83203125" style="84" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="84"/>
+    <col min="7681" max="7714" width="4.83203125" style="84" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="84"/>
+    <col min="7937" max="7970" width="4.83203125" style="84" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="84"/>
+    <col min="8193" max="8226" width="4.83203125" style="84" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="84"/>
+    <col min="8449" max="8482" width="4.83203125" style="84" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="84"/>
+    <col min="8705" max="8738" width="4.83203125" style="84" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="84"/>
+    <col min="8961" max="8994" width="4.83203125" style="84" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="84"/>
+    <col min="9217" max="9250" width="4.83203125" style="84" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="84"/>
+    <col min="9473" max="9506" width="4.83203125" style="84" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="84"/>
+    <col min="9729" max="9762" width="4.83203125" style="84" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="84"/>
+    <col min="9985" max="10018" width="4.83203125" style="84" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="84"/>
+    <col min="10241" max="10274" width="4.83203125" style="84" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="84"/>
+    <col min="10497" max="10530" width="4.83203125" style="84" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="84"/>
+    <col min="10753" max="10786" width="4.83203125" style="84" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="84"/>
+    <col min="11009" max="11042" width="4.83203125" style="84" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="84"/>
+    <col min="11265" max="11298" width="4.83203125" style="84" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="84"/>
+    <col min="11521" max="11554" width="4.83203125" style="84" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="84"/>
+    <col min="11777" max="11810" width="4.83203125" style="84" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="84"/>
+    <col min="12033" max="12066" width="4.83203125" style="84" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="84"/>
+    <col min="12289" max="12322" width="4.83203125" style="84" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="84"/>
+    <col min="12545" max="12578" width="4.83203125" style="84" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="84"/>
+    <col min="12801" max="12834" width="4.83203125" style="84" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="84"/>
+    <col min="13057" max="13090" width="4.83203125" style="84" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="84"/>
+    <col min="13313" max="13346" width="4.83203125" style="84" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="84"/>
+    <col min="13569" max="13602" width="4.83203125" style="84" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="84"/>
+    <col min="13825" max="13858" width="4.83203125" style="84" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="84"/>
+    <col min="14081" max="14114" width="4.83203125" style="84" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="84"/>
+    <col min="14337" max="14370" width="4.83203125" style="84" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="84"/>
+    <col min="14593" max="14626" width="4.83203125" style="84" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="84"/>
+    <col min="14849" max="14882" width="4.83203125" style="84" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="84"/>
+    <col min="15105" max="15138" width="4.83203125" style="84" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="84"/>
+    <col min="15361" max="15394" width="4.83203125" style="84" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="84"/>
+    <col min="15617" max="15650" width="4.83203125" style="84" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="84"/>
+    <col min="15873" max="15906" width="4.83203125" style="84" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="84"/>
+    <col min="16129" max="16162" width="4.83203125" style="84" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="40" customFormat="1" ht="11.5" hidden="1">
+    <row r="1" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
@@ -11115,7 +11003,7 @@
       <c r="AH1" s="206"/>
       <c r="AI1" s="207"/>
     </row>
-    <row r="2" spans="1:35" s="40" customFormat="1" ht="11.5" hidden="1">
+    <row r="2" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="187" t="s">
         <v>3</v>
       </c>
@@ -11165,7 +11053,7 @@
       <c r="AH2" s="206"/>
       <c r="AI2" s="207"/>
     </row>
-    <row r="3" spans="1:35" s="40" customFormat="1" ht="11.5" hidden="1">
+    <row r="3" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="187" t="s">
         <v>5</v>
       </c>
@@ -11213,7 +11101,7 @@
       <c r="AH3" s="206"/>
       <c r="AI3" s="207"/>
     </row>
-    <row r="4" spans="1:35" s="79" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="79" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
@@ -11250,7 +11138,7 @@
       <c r="AH4" s="77"/>
       <c r="AI4" s="77"/>
     </row>
-    <row r="5" spans="1:35" s="79" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
       <c r="C5" s="77"/>
@@ -11268,7 +11156,7 @@
       <c r="O5" s="77"/>
       <c r="P5" s="77"/>
       <c r="Q5" s="80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R5" s="77"/>
       <c r="S5" s="77"/>
@@ -11289,7 +11177,7 @@
       <c r="AH5" s="77"/>
       <c r="AI5" s="77"/>
     </row>
-    <row r="6" spans="1:35" s="79" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77"/>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
@@ -11326,7 +11214,7 @@
       <c r="AH6" s="77"/>
       <c r="AI6" s="77"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="81"/>
       <c r="B7" s="82" t="s">
         <v>99</v>
@@ -11359,7 +11247,7 @@
       <c r="AH7" s="88"/>
       <c r="AI7" s="85"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="81"/>
       <c r="B8" s="83"/>
       <c r="C8" s="82"/>
@@ -11390,7 +11278,7 @@
       <c r="AH8" s="90"/>
       <c r="AI8" s="85"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="81"/>
       <c r="B9" s="83" t="s">
         <v>74</v>
@@ -11419,7 +11307,7 @@
       <c r="AH9" s="92"/>
       <c r="AI9" s="81"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="81"/>
       <c r="B10" s="85"/>
       <c r="C10" s="37" t="s">
@@ -11452,7 +11340,7 @@
       <c r="AH10" s="88"/>
       <c r="AI10" s="85"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
       <c r="C11" s="37" t="s">
@@ -11491,7 +11379,7 @@
       <c r="AH11" s="88"/>
       <c r="AI11" s="85"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="81"/>
       <c r="P12" s="78"/>
       <c r="Q12" s="77"/>
@@ -11514,7 +11402,7 @@
       <c r="AH12" s="88"/>
       <c r="AI12" s="85"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="81"/>
       <c r="B13" s="93"/>
       <c r="C13" s="93"/>
@@ -11551,7 +11439,7 @@
       <c r="AH13" s="88"/>
       <c r="AI13" s="85"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="81"/>
       <c r="C14" s="32"/>
       <c r="O14" s="83"/>
@@ -11576,7 +11464,7 @@
       <c r="AH14" s="88"/>
       <c r="AI14" s="85"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="81"/>
       <c r="B15" s="83"/>
       <c r="C15" s="32"/>
@@ -11613,7 +11501,7 @@
       <c r="AH15" s="88"/>
       <c r="AI15" s="85"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81"/>
       <c r="B16" s="83"/>
       <c r="C16" s="32"/>
@@ -11650,7 +11538,7 @@
       <c r="AH16" s="88"/>
       <c r="AI16" s="85"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="81"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -11685,7 +11573,7 @@
       <c r="AH17" s="88"/>
       <c r="AI17" s="85"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="81"/>
       <c r="D18" s="32"/>
       <c r="E18" s="77"/>
@@ -11707,7 +11595,7 @@
       <c r="AH18" s="88"/>
       <c r="AI18" s="85"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="81"/>
       <c r="N19" s="91"/>
       <c r="P19" s="93"/>
@@ -11727,7 +11615,7 @@
       <c r="AH19" s="88"/>
       <c r="AI19" s="85"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="81"/>
       <c r="U20" s="83"/>
       <c r="V20" s="83"/>
@@ -11745,7 +11633,7 @@
       <c r="AH20" s="88"/>
       <c r="AI20" s="85"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="81"/>
       <c r="U21" s="83"/>
       <c r="V21" s="83"/>
@@ -11763,7 +11651,7 @@
       <c r="AH21" s="88"/>
       <c r="AI21" s="85"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="81"/>
       <c r="U22" s="83"/>
       <c r="V22" s="83"/>
@@ -11781,7 +11669,7 @@
       <c r="AH22" s="88"/>
       <c r="AI22" s="85"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="81"/>
       <c r="U23" s="83"/>
       <c r="V23" s="83"/>
@@ -11799,7 +11687,7 @@
       <c r="AH23" s="88"/>
       <c r="AI23" s="85"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="81"/>
       <c r="B24" s="77"/>
       <c r="C24" s="81"/>
@@ -11834,7 +11722,7 @@
       <c r="AH24" s="88"/>
       <c r="AI24" s="85"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="81"/>
       <c r="B25" s="77"/>
       <c r="C25" s="81"/>
@@ -11871,7 +11759,7 @@
       <c r="AH25" s="88"/>
       <c r="AI25" s="85"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="81"/>
       <c r="B26" s="77"/>
       <c r="C26" s="81"/>
@@ -11908,7 +11796,7 @@
       <c r="AH26" s="88"/>
       <c r="AI26" s="85"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="81"/>
       <c r="B27" s="77"/>
       <c r="C27" s="81"/>
@@ -11945,7 +11833,7 @@
       <c r="AH27" s="88"/>
       <c r="AI27" s="85"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="81"/>
       <c r="B28" s="77"/>
       <c r="C28" s="81"/>
@@ -11982,7 +11870,7 @@
       <c r="AH28" s="88"/>
       <c r="AI28" s="85"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="81"/>
       <c r="B29" s="77"/>
       <c r="C29" s="81"/>
@@ -12019,7 +11907,7 @@
       <c r="AH29" s="88"/>
       <c r="AI29" s="85"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95"/>
       <c r="B30" s="77"/>
       <c r="C30" s="77"/>
@@ -12056,7 +11944,7 @@
       <c r="AH30" s="98"/>
       <c r="AI30" s="99"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95"/>
       <c r="B31" s="77"/>
       <c r="C31" s="78"/>
@@ -12093,7 +11981,7 @@
       <c r="AH31" s="98"/>
       <c r="AI31" s="99"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="95"/>
       <c r="B32" s="102"/>
       <c r="C32" s="81"/>
@@ -12130,7 +12018,7 @@
       <c r="AH32" s="98"/>
       <c r="AI32" s="99"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="95"/>
       <c r="B33" s="102"/>
       <c r="C33" s="81"/>
@@ -12167,7 +12055,7 @@
       <c r="AH33" s="98"/>
       <c r="AI33" s="99"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="95"/>
       <c r="B34" s="102"/>
       <c r="C34" s="81"/>
@@ -12204,7 +12092,7 @@
       <c r="AH34" s="98"/>
       <c r="AI34" s="99"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="95"/>
       <c r="B35" s="102"/>
       <c r="C35" s="81"/>
@@ -12241,7 +12129,7 @@
       <c r="AH35" s="98"/>
       <c r="AI35" s="99"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="95"/>
       <c r="B36" s="95"/>
       <c r="C36" s="95"/>
@@ -12278,7 +12166,7 @@
       <c r="AH36" s="107"/>
       <c r="AI36" s="95"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="49"/>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
@@ -12310,7 +12198,7 @@
       <c r="AH37" s="113"/>
       <c r="AI37" s="109"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="109"/>
       <c r="T38" s="109"/>
       <c r="U38" s="110"/>
@@ -12329,7 +12217,7 @@
       <c r="AH38" s="116"/>
       <c r="AI38" s="109"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="117"/>
       <c r="S39" s="109"/>
       <c r="T39" s="110"/>
@@ -12349,7 +12237,7 @@
       <c r="AH39" s="116"/>
       <c r="AI39" s="109"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="109"/>
       <c r="T40" s="109"/>
       <c r="U40" s="109"/>
@@ -12368,7 +12256,7 @@
       <c r="AH40" s="116"/>
       <c r="AI40" s="109"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="49"/>
       <c r="K41" s="49"/>
       <c r="L41" s="49"/>
@@ -12382,37 +12270,37 @@
       <c r="AH41" s="116"/>
       <c r="AI41" s="109"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="109"/>
       <c r="AF42" s="114"/>
       <c r="AG42" s="115"/>
       <c r="AH42" s="116"/>
       <c r="AI42" s="109"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="109"/>
       <c r="AF43" s="114"/>
       <c r="AG43" s="114"/>
       <c r="AH43" s="116"/>
       <c r="AI43" s="109"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="49"/>
       <c r="AF44" s="118"/>
       <c r="AG44" s="118"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="49"/>
       <c r="AG45" s="118"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="118"/>
       <c r="AG46" s="118"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="118"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="49"/>
       <c r="T48" s="49"/>
       <c r="V48" s="49"/>
@@ -12425,7 +12313,7 @@
       <c r="AC48" s="49"/>
       <c r="AD48" s="49"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="49"/>
       <c r="S49" s="49"/>
       <c r="T49" s="49"/>
@@ -12440,10 +12328,10 @@
       <c r="AD49" s="49"/>
       <c r="AG49" s="118"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="49"/>
     </row>
-    <row r="51" spans="1:34" s="49" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="84"/>
       <c r="B51" s="84"/>
       <c r="C51" s="84"/>
@@ -12476,7 +12364,7 @@
       <c r="AD51" s="84"/>
       <c r="AH51" s="117"/>
     </row>
-    <row r="52" spans="1:34" s="49" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="84"/>
       <c r="B52" s="84"/>
       <c r="C52" s="84"/>
@@ -12537,24 +12425,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI162"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="32" width="4.77734375" style="32"/>
-    <col min="33" max="35" width="4.77734375" style="32" customWidth="1"/>
-    <col min="36" max="16384" width="4.77734375" style="32"/>
+    <col min="1" max="32" width="4.83203125" style="32"/>
+    <col min="33" max="35" width="4.83203125" style="32" customWidth="1"/>
+    <col min="36" max="16384" width="4.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="187" t="s">
         <v>6</v>
       </c>
@@ -12609,7 +12497,7 @@
       <c r="AH1" s="206"/>
       <c r="AI1" s="207"/>
     </row>
-    <row r="2" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="226" t="s">
         <v>9</v>
       </c>
@@ -12659,7 +12547,7 @@
       <c r="AH2" s="206"/>
       <c r="AI2" s="207"/>
     </row>
-    <row r="3" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="226" t="s">
         <v>11</v>
       </c>
@@ -12707,32 +12595,32 @@
       <c r="AH3" s="206"/>
       <c r="AI3" s="207"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C8" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C13" s="32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C15" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="3:33">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D17" s="241" t="s">
         <v>128</v>
       </c>
@@ -12768,7 +12656,7 @@
       <c r="AF17" s="241"/>
       <c r="AG17" s="241"/>
     </row>
-    <row r="18" spans="3:33">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D18" s="238" t="s">
         <v>130</v>
       </c>
@@ -12804,7 +12692,7 @@
       <c r="AF18" s="238"/>
       <c r="AG18" s="238"/>
     </row>
-    <row r="19" spans="3:33">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D19" s="224" t="s">
         <v>132</v>
       </c>
@@ -12840,7 +12728,7 @@
       <c r="AF19" s="224"/>
       <c r="AG19" s="224"/>
     </row>
-    <row r="20" spans="3:33">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D20" s="239"/>
       <c r="E20" s="239"/>
       <c r="F20" s="239"/>
@@ -12874,12 +12762,12 @@
       <c r="AF20" s="239"/>
       <c r="AG20" s="239"/>
     </row>
-    <row r="22" spans="3:33">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="3:33">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D24" s="241" t="s">
         <v>128</v>
       </c>
@@ -12915,7 +12803,7 @@
       <c r="AF24" s="241"/>
       <c r="AG24" s="241"/>
     </row>
-    <row r="25" spans="3:33">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D25" s="238" t="s">
         <v>136</v>
       </c>
@@ -12951,7 +12839,7 @@
       <c r="AF25" s="238"/>
       <c r="AG25" s="238"/>
     </row>
-    <row r="26" spans="3:33">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D26" s="238" t="s">
         <v>138</v>
       </c>
@@ -12987,7 +12875,7 @@
       <c r="AF26" s="238"/>
       <c r="AG26" s="238"/>
     </row>
-    <row r="27" spans="3:33">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D27" s="238" t="s">
         <v>140</v>
       </c>
@@ -13023,12 +12911,12 @@
       <c r="AF27" s="238"/>
       <c r="AG27" s="238"/>
     </row>
-    <row r="29" spans="3:33">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="3:33">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D31" s="241" t="s">
         <v>128</v>
       </c>
@@ -13064,7 +12952,7 @@
       <c r="AF31" s="241"/>
       <c r="AG31" s="241"/>
     </row>
-    <row r="32" spans="3:33">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D32" s="242" t="s">
         <v>143</v>
       </c>
@@ -13100,7 +12988,7 @@
       <c r="AF32" s="242"/>
       <c r="AG32" s="242"/>
     </row>
-    <row r="33" spans="2:33">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D33" s="243"/>
       <c r="E33" s="243"/>
       <c r="F33" s="243"/>
@@ -13134,7 +13022,7 @@
       <c r="AF33" s="243"/>
       <c r="AG33" s="243"/>
     </row>
-    <row r="34" spans="2:33">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D34" s="242" t="s">
         <v>146</v>
       </c>
@@ -13170,7 +13058,7 @@
       <c r="AF34" s="242"/>
       <c r="AG34" s="242"/>
     </row>
-    <row r="35" spans="2:33">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D35" s="243"/>
       <c r="E35" s="243"/>
       <c r="F35" s="243"/>
@@ -13204,7 +13092,7 @@
       <c r="AF35" s="243"/>
       <c r="AG35" s="243"/>
     </row>
-    <row r="36" spans="2:33" ht="13.5" customHeight="1">
+    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="244" t="s">
         <v>149</v>
       </c>
@@ -13240,7 +13128,7 @@
       <c r="AF36" s="244"/>
       <c r="AG36" s="244"/>
     </row>
-    <row r="37" spans="2:33">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
@@ -13272,12 +13160,12 @@
       <c r="AF37" s="48"/>
       <c r="AG37" s="48"/>
     </row>
-    <row r="38" spans="2:33">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="32" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="2:33">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D40" s="241" t="s">
         <v>128</v>
       </c>
@@ -13313,7 +13201,7 @@
       <c r="AF40" s="241"/>
       <c r="AG40" s="241"/>
     </row>
-    <row r="41" spans="2:33">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D41" s="238" t="s">
         <v>152</v>
       </c>
@@ -13349,7 +13237,7 @@
       <c r="AF41" s="238"/>
       <c r="AG41" s="238"/>
     </row>
-    <row r="42" spans="2:33">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D42" s="49"/>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
@@ -13381,32 +13269,32 @@
       <c r="AF42" s="49"/>
       <c r="AG42" s="49"/>
     </row>
-    <row r="44" spans="2:33">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B44" s="32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="2:33">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="2:33">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="3:34">
+    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49" s="32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="3:34">
+    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D51" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="3:34">
+    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E53" s="223" t="s">
         <v>159</v>
       </c>
@@ -13440,7 +13328,7 @@
       <c r="AG53" s="223"/>
       <c r="AH53" s="223"/>
     </row>
-    <row r="54" spans="3:34">
+    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E54" s="223"/>
       <c r="F54" s="223"/>
       <c r="G54" s="223"/>
@@ -13472,95 +13360,92 @@
       <c r="AG54" s="223"/>
       <c r="AH54" s="223"/>
     </row>
-    <row r="55" spans="3:34"/>
-    <row r="74" spans="34:34"/>
-    <row r="85" spans="3:5">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" s="32" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="3:5">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E87" s="32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="3:5">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E88" s="32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E89" s="32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E90" s="32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E91" s="32" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="3:5">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E92" s="32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C95" s="32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="4:26">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="4:26">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E99" s="32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="4:26">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E100" s="32" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="4:26"/>
-    <row r="132" spans="2:31">
+    <row r="132" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D132" s="32" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="2:31">
+    <row r="134" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E134" s="32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="2:31">
+    <row r="135" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E135" s="32" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="2:31">
+    <row r="136" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E136" s="32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="2:31">
+    <row r="137" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E137" s="32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="2:31">
+    <row r="138" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E138" s="32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="2:31">
+    <row r="141" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B141" s="48" t="s">
         <v>175</v>
       </c>
@@ -13594,7 +13479,7 @@
       <c r="AD141" s="48"/>
       <c r="AE141" s="48"/>
     </row>
-    <row r="142" spans="2:31">
+    <row r="142" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B142" s="48"/>
       <c r="C142" s="48" t="s">
         <v>176</v>
@@ -13628,7 +13513,7 @@
       <c r="AD142" s="48"/>
       <c r="AE142" s="48"/>
     </row>
-    <row r="143" spans="2:31">
+    <row r="143" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B143" s="48"/>
       <c r="C143" s="48" t="s">
         <v>177</v>
@@ -13662,7 +13547,7 @@
       <c r="AD143" s="48"/>
       <c r="AE143" s="48"/>
     </row>
-    <row r="144" spans="2:31">
+    <row r="144" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B144" s="48"/>
       <c r="C144" s="48"/>
       <c r="D144" s="48"/>
@@ -13694,7 +13579,7 @@
       <c r="AD144" s="48"/>
       <c r="AE144" s="48"/>
     </row>
-    <row r="145" spans="2:31">
+    <row r="145" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B145" s="48"/>
       <c r="C145" s="50" t="s">
         <v>178</v>
@@ -13708,10 +13593,10 @@
       <c r="J145" s="51"/>
       <c r="K145" s="52"/>
       <c r="L145" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="M145" s="50" t="s">
         <v>179</v>
-      </c>
-      <c r="M145" s="50" t="s">
-        <v>180</v>
       </c>
       <c r="N145" s="51"/>
       <c r="O145" s="51"/>
@@ -13732,7 +13617,7 @@
       <c r="AD145" s="51"/>
       <c r="AE145" s="52"/>
     </row>
-    <row r="146" spans="2:31">
+    <row r="146" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B146" s="48"/>
       <c r="C146" s="54" t="s">
         <v>99</v>
@@ -13770,11 +13655,11 @@
       <c r="AD146" s="55"/>
       <c r="AE146" s="58"/>
     </row>
-    <row r="147" spans="2:31">
+    <row r="147" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B147" s="48"/>
       <c r="C147" s="59"/>
       <c r="D147" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E147" s="61"/>
       <c r="F147" s="61"/>
@@ -13784,10 +13669,10 @@
       <c r="J147" s="61"/>
       <c r="K147" s="62"/>
       <c r="L147" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="M147" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="M147" s="60" t="s">
-        <v>183</v>
       </c>
       <c r="N147" s="61"/>
       <c r="O147" s="61"/>
@@ -13808,11 +13693,11 @@
       <c r="AD147" s="61"/>
       <c r="AE147" s="62"/>
     </row>
-    <row r="148" spans="2:31">
+    <row r="148" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B148" s="48"/>
       <c r="C148" s="64"/>
       <c r="D148" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E148" s="66"/>
       <c r="F148" s="66"/>
@@ -13822,10 +13707,10 @@
       <c r="J148" s="66"/>
       <c r="K148" s="67"/>
       <c r="L148" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="M148" s="65" t="s">
         <v>185</v>
-      </c>
-      <c r="M148" s="65" t="s">
-        <v>186</v>
       </c>
       <c r="N148" s="66"/>
       <c r="O148" s="66"/>
@@ -13846,7 +13731,7 @@
       <c r="AD148" s="66"/>
       <c r="AE148" s="67"/>
     </row>
-    <row r="149" spans="2:31">
+    <row r="149" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B149" s="48"/>
       <c r="C149" s="54" t="s">
         <v>81</v>
@@ -13860,10 +13745,10 @@
       <c r="J149" s="55"/>
       <c r="K149" s="58"/>
       <c r="L149" s="69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M149" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N149" s="55"/>
       <c r="O149" s="55"/>
@@ -13884,7 +13769,7 @@
       <c r="AD149" s="55"/>
       <c r="AE149" s="58"/>
     </row>
-    <row r="150" spans="2:31">
+    <row r="150" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B150" s="48"/>
       <c r="C150" s="59"/>
       <c r="D150" s="70"/>
@@ -13897,7 +13782,7 @@
       <c r="K150" s="71"/>
       <c r="L150" s="72"/>
       <c r="M150" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N150" s="70"/>
       <c r="O150" s="70"/>
@@ -13918,7 +13803,7 @@
       <c r="AD150" s="70"/>
       <c r="AE150" s="71"/>
     </row>
-    <row r="151" spans="2:31">
+    <row r="151" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B151" s="48"/>
       <c r="C151" s="54" t="s">
         <v>75</v>
@@ -13932,10 +13817,10 @@
       <c r="J151" s="55"/>
       <c r="K151" s="58"/>
       <c r="L151" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M151" s="217" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N151" s="218"/>
       <c r="O151" s="218"/>
@@ -13956,7 +13841,7 @@
       <c r="AD151" s="218"/>
       <c r="AE151" s="219"/>
     </row>
-    <row r="152" spans="2:31">
+    <row r="152" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B152" s="48"/>
       <c r="C152" s="64"/>
       <c r="D152" s="74"/>
@@ -13988,7 +13873,7 @@
       <c r="AD152" s="221"/>
       <c r="AE152" s="222"/>
     </row>
-    <row r="153" spans="2:31">
+    <row r="153" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B153" s="48"/>
       <c r="C153" s="48"/>
       <c r="D153" s="48"/>
@@ -14020,10 +13905,10 @@
       <c r="AD153" s="48"/>
       <c r="AE153" s="48"/>
     </row>
-    <row r="154" spans="2:31">
+    <row r="154" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B154" s="48"/>
       <c r="C154" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D154" s="48"/>
       <c r="E154" s="48"/>
@@ -14054,7 +13939,7 @@
       <c r="AD154" s="48"/>
       <c r="AE154" s="48"/>
     </row>
-    <row r="155" spans="2:31">
+    <row r="155" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B155" s="48"/>
       <c r="C155" s="48"/>
       <c r="D155" s="48"/>
@@ -14086,10 +13971,10 @@
       <c r="AD155" s="48"/>
       <c r="AE155" s="48"/>
     </row>
-    <row r="156" spans="2:31">
+    <row r="156" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B156" s="48"/>
       <c r="C156" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D156" s="48"/>
       <c r="F156" s="48"/>
@@ -14119,10 +14004,10 @@
       <c r="AD156" s="48"/>
       <c r="AE156" s="48"/>
     </row>
-    <row r="157" spans="2:31">
+    <row r="157" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B157" s="48"/>
       <c r="C157" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D157" s="48"/>
       <c r="F157" s="48"/>
@@ -14152,10 +14037,10 @@
       <c r="AD157" s="48"/>
       <c r="AE157" s="48"/>
     </row>
-    <row r="158" spans="2:31">
+    <row r="158" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B158" s="48"/>
       <c r="C158" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D158" s="48"/>
       <c r="F158" s="48"/>
@@ -14185,10 +14070,10 @@
       <c r="AD158" s="48"/>
       <c r="AE158" s="48"/>
     </row>
-    <row r="159" spans="2:31">
+    <row r="159" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B159" s="48"/>
       <c r="C159" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D159" s="48"/>
       <c r="F159" s="48"/>
@@ -14218,10 +14103,10 @@
       <c r="AD159" s="48"/>
       <c r="AE159" s="48"/>
     </row>
-    <row r="160" spans="2:31">
+    <row r="160" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B160" s="48"/>
       <c r="C160" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D160" s="48"/>
       <c r="F160" s="48"/>
@@ -14251,10 +14136,10 @@
       <c r="AD160" s="48"/>
       <c r="AE160" s="48"/>
     </row>
-    <row r="161" spans="2:31">
+    <row r="161" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B161" s="48"/>
       <c r="C161" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D161" s="48"/>
       <c r="F161" s="48"/>
@@ -14284,9 +14169,9 @@
       <c r="AD161" s="48"/>
       <c r="AE161" s="48"/>
     </row>
-    <row r="162" spans="2:31">
+    <row r="162" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C162" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -14356,7 +14241,6 @@
     <brk id="140" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14365,22 +14249,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BN15"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="4.77734375" style="32"/>
-    <col min="24" max="24" width="4.77734375" style="32" customWidth="1"/>
-    <col min="25" max="36" width="4.77734375" style="32"/>
-    <col min="37" max="39" width="4.77734375" style="32" customWidth="1"/>
-    <col min="40" max="41" width="4.77734375" style="32"/>
-    <col min="42" max="44" width="4.77734375" style="32" customWidth="1"/>
-    <col min="45" max="16384" width="4.77734375" style="32"/>
+    <col min="1" max="23" width="4.83203125" style="32"/>
+    <col min="24" max="24" width="4.83203125" style="32" customWidth="1"/>
+    <col min="25" max="36" width="4.83203125" style="32"/>
+    <col min="37" max="39" width="4.83203125" style="32" customWidth="1"/>
+    <col min="40" max="41" width="4.83203125" style="32"/>
+    <col min="42" max="44" width="4.83203125" style="32" customWidth="1"/>
+    <col min="45" max="16384" width="4.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="40" customFormat="1" hidden="1">
+    <row r="1" spans="1:66" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="187" t="s">
         <v>12</v>
       </c>
@@ -14438,7 +14322,7 @@
       <c r="AK1" s="38"/>
       <c r="AL1" s="39"/>
     </row>
-    <row r="2" spans="1:66" s="40" customFormat="1" hidden="1">
+    <row r="2" spans="1:66" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="226" t="s">
         <v>15</v>
       </c>
@@ -14491,7 +14375,7 @@
       <c r="AK2" s="38"/>
       <c r="AL2" s="38"/>
     </row>
-    <row r="3" spans="1:66" s="40" customFormat="1" hidden="1">
+    <row r="3" spans="1:66" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="226" t="s">
         <v>17</v>
       </c>
@@ -14542,12 +14426,12 @@
       <c r="AK3" s="38"/>
       <c r="AL3" s="38"/>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" s="266" t="s">
         <v>41</v>
       </c>
@@ -14636,7 +14520,7 @@
       <c r="BM7" s="245"/>
       <c r="BN7" s="245"/>
     </row>
-    <row r="8" spans="1:66" s="42" customFormat="1" ht="11.25" customHeight="1">
+    <row r="8" spans="1:66" s="42" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="267"/>
       <c r="B8" s="268"/>
       <c r="C8" s="268"/>
@@ -14713,7 +14597,7 @@
       <c r="BM8" s="245"/>
       <c r="BN8" s="245"/>
     </row>
-    <row r="9" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -14794,7 +14678,7 @@
       <c r="BM9" s="265"/>
       <c r="BN9" s="265"/>
     </row>
-    <row r="10" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <v>2</v>
       </c>
@@ -14877,7 +14761,7 @@
       <c r="BM10" s="265"/>
       <c r="BN10" s="265"/>
     </row>
-    <row r="11" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <v>3</v>
       </c>
@@ -14961,7 +14845,7 @@
       <c r="BM11" s="265"/>
       <c r="BN11" s="265"/>
     </row>
-    <row r="12" spans="1:66" s="45" customFormat="1">
+    <row r="12" spans="1:66" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <v>4</v>
       </c>
@@ -15030,7 +14914,7 @@
       <c r="BM12" s="265"/>
       <c r="BN12" s="265"/>
     </row>
-    <row r="13" spans="1:66" s="45" customFormat="1">
+    <row r="13" spans="1:66" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <v>5</v>
       </c>
@@ -15099,8 +14983,8 @@
       <c r="BM13" s="265"/>
       <c r="BN13" s="265"/>
     </row>
-    <row r="14" spans="1:66" ht="11.25" customHeight="1"/>
-    <row r="15" spans="1:66" ht="11.25" customHeight="1"/>
+    <row r="14" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="98">
@@ -15225,18 +15109,18 @@
   <dimension ref="A1:BR28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="4.77734375" style="37" customWidth="1"/>
+    <col min="1" max="29" width="4.83203125" style="37" customWidth="1"/>
     <col min="30" max="30" width="5" style="37" customWidth="1"/>
-    <col min="31" max="70" width="4.77734375" style="37" customWidth="1"/>
+    <col min="31" max="70" width="4.83203125" style="37" customWidth="1"/>
     <col min="71" max="16384" width="9.33203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="36" customFormat="1" hidden="1">
+    <row r="1" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="187" t="s">
         <v>18</v>
       </c>
@@ -15291,7 +15175,7 @@
       <c r="AH1" s="206"/>
       <c r="AI1" s="207"/>
     </row>
-    <row r="2" spans="1:70" s="36" customFormat="1" hidden="1">
+    <row r="2" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="226" t="s">
         <v>21</v>
       </c>
@@ -15341,7 +15225,7 @@
       <c r="AH2" s="206"/>
       <c r="AI2" s="207"/>
     </row>
-    <row r="3" spans="1:70" s="36" customFormat="1" hidden="1">
+    <row r="3" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="226" t="s">
         <v>23</v>
       </c>
@@ -15389,17 +15273,17 @@
       <c r="AH3" s="206"/>
       <c r="AI3" s="207"/>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" s="241" t="s">
         <v>41</v>
       </c>
@@ -15450,7 +15334,7 @@
       <c r="BQ8" s="32"/>
       <c r="BR8" s="32"/>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" s="241"/>
       <c r="B9" s="310"/>
       <c r="C9" s="311"/>
@@ -15526,7 +15410,7 @@
       <c r="BQ9" s="32"/>
       <c r="BR9" s="32"/>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>1</v>
       </c>
@@ -15604,7 +15488,7 @@
       <c r="BQ10" s="32"/>
       <c r="BR10" s="32"/>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <v>2</v>
       </c>
@@ -15682,7 +15566,7 @@
       <c r="BQ11" s="32"/>
       <c r="BR11" s="32"/>
     </row>
-    <row r="12" spans="1:70" ht="25.5" customHeight="1">
+    <row r="12" spans="1:70" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>3</v>
       </c>
@@ -15760,7 +15644,7 @@
       <c r="BQ12" s="32"/>
       <c r="BR12" s="32"/>
     </row>
-    <row r="13" spans="1:70" ht="21.75" customHeight="1">
+    <row r="13" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <v>4</v>
       </c>
@@ -15838,7 +15722,7 @@
       <c r="BQ13" s="32"/>
       <c r="BR13" s="32"/>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <v>5</v>
       </c>
@@ -15916,7 +15800,7 @@
       <c r="BQ14" s="32"/>
       <c r="BR14" s="32"/>
     </row>
-    <row r="15" spans="1:70" ht="21.75" customHeight="1">
+    <row r="15" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
         <v>6</v>
       </c>
@@ -15994,7 +15878,7 @@
       <c r="BQ15" s="32"/>
       <c r="BR15" s="32"/>
     </row>
-    <row r="16" spans="1:70" ht="39.75" customHeight="1">
+    <row r="16" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>7</v>
       </c>
@@ -16072,7 +15956,7 @@
       <c r="BQ16" s="32"/>
       <c r="BR16" s="32"/>
     </row>
-    <row r="17" spans="1:70" ht="24" customHeight="1">
+    <row r="17" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
         <v>8</v>
       </c>
@@ -16150,7 +16034,7 @@
       <c r="BQ17" s="32"/>
       <c r="BR17" s="32"/>
     </row>
-    <row r="18" spans="1:70" ht="24" customHeight="1">
+    <row r="18" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <v>9</v>
       </c>
@@ -16228,7 +16112,7 @@
       <c r="BQ18" s="32"/>
       <c r="BR18" s="32"/>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -16300,7 +16184,7 @@
       <c r="BQ19" s="32"/>
       <c r="BR19" s="32"/>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -16372,7 +16256,7 @@
       <c r="BQ20" s="32"/>
       <c r="BR20" s="32"/>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -16444,7 +16328,7 @@
       <c r="BQ21" s="32"/>
       <c r="BR21" s="32"/>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -16516,7 +16400,7 @@
       <c r="BQ22" s="32"/>
       <c r="BR22" s="32"/>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -16588,7 +16472,7 @@
       <c r="BQ23" s="32"/>
       <c r="BR23" s="32"/>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="AG24" s="32"/>
       <c r="AH24" s="32"/>
       <c r="AI24" s="32"/>
@@ -16628,7 +16512,7 @@
       <c r="BQ24" s="32"/>
       <c r="BR24" s="32"/>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="AG25" s="32"/>
       <c r="AH25" s="32"/>
       <c r="AI25" s="32"/>
@@ -16668,7 +16552,7 @@
       <c r="BQ25" s="32"/>
       <c r="BR25" s="32"/>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
       <c r="AG26" s="32"/>
       <c r="AH26" s="32"/>
       <c r="AI26" s="32"/>
@@ -16708,7 +16592,7 @@
       <c r="BQ26" s="32"/>
       <c r="BR26" s="32"/>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
       <c r="AG27" s="32"/>
       <c r="AH27" s="32"/>
       <c r="AI27" s="32"/>
@@ -16748,7 +16632,7 @@
       <c r="BQ27" s="32"/>
       <c r="BR27" s="32"/>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
       <c r="AG28" s="32"/>
       <c r="AH28" s="32"/>
       <c r="AI28" s="32"/>
@@ -16866,18 +16750,18 @@
   <dimension ref="A1:BR25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="4.77734375" style="37" customWidth="1"/>
+    <col min="1" max="29" width="4.83203125" style="37" customWidth="1"/>
     <col min="30" max="30" width="5" style="37" customWidth="1"/>
-    <col min="31" max="70" width="4.77734375" style="37" customWidth="1"/>
+    <col min="31" max="70" width="4.83203125" style="37" customWidth="1"/>
     <col min="71" max="16384" width="9.33203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="36" customFormat="1" hidden="1">
+    <row r="1" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="187" t="s">
         <v>24</v>
       </c>
@@ -16932,7 +16816,7 @@
       <c r="AH1" s="206"/>
       <c r="AI1" s="207"/>
     </row>
-    <row r="2" spans="1:70" s="36" customFormat="1" hidden="1">
+    <row r="2" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="226" t="s">
         <v>27</v>
       </c>
@@ -16982,7 +16866,7 @@
       <c r="AH2" s="206"/>
       <c r="AI2" s="207"/>
     </row>
-    <row r="3" spans="1:70" s="36" customFormat="1" hidden="1">
+    <row r="3" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="226" t="s">
         <v>29</v>
       </c>
@@ -17030,17 +16914,17 @@
       <c r="AH3" s="206"/>
       <c r="AI3" s="207"/>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" s="241" t="s">
         <v>41</v>
       </c>
@@ -17120,7 +17004,7 @@
       <c r="BQ8" s="32"/>
       <c r="BR8" s="32"/>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" s="241"/>
       <c r="B9" s="310"/>
       <c r="C9" s="311"/>
@@ -17196,7 +17080,7 @@
       <c r="BQ9" s="32"/>
       <c r="BR9" s="32"/>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="299"/>
       <c r="C10" s="299"/>
@@ -17268,7 +17152,7 @@
       <c r="BQ10" s="32"/>
       <c r="BR10" s="32"/>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="299"/>
       <c r="C11" s="299"/>
@@ -17340,7 +17224,7 @@
       <c r="BQ11" s="32"/>
       <c r="BR11" s="32"/>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="299"/>
       <c r="C12" s="299"/>
@@ -17412,7 +17296,7 @@
       <c r="BQ12" s="32"/>
       <c r="BR12" s="32"/>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="299"/>
       <c r="C13" s="299"/>
@@ -17484,7 +17368,7 @@
       <c r="BQ13" s="32"/>
       <c r="BR13" s="32"/>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="302"/>
       <c r="C14" s="300"/>
@@ -17556,7 +17440,7 @@
       <c r="BQ14" s="32"/>
       <c r="BR14" s="32"/>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="304"/>
       <c r="C15" s="305"/>
@@ -17628,7 +17512,7 @@
       <c r="BQ15" s="32"/>
       <c r="BR15" s="32"/>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="302"/>
       <c r="C16" s="300"/>
@@ -17700,7 +17584,7 @@
       <c r="BQ16" s="32"/>
       <c r="BR16" s="32"/>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="302"/>
       <c r="C17" s="302"/>
@@ -17772,7 +17656,7 @@
       <c r="BQ17" s="32"/>
       <c r="BR17" s="32"/>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="299"/>
       <c r="C18" s="299"/>
@@ -17844,7 +17728,7 @@
       <c r="BQ18" s="32"/>
       <c r="BR18" s="32"/>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="299"/>
       <c r="C19" s="299"/>
@@ -17916,7 +17800,7 @@
       <c r="BQ19" s="32"/>
       <c r="BR19" s="32"/>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="301"/>
       <c r="C20" s="299"/>
@@ -17953,7 +17837,7 @@
       <c r="AH20" s="298"/>
       <c r="AI20" s="298"/>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="301"/>
       <c r="C21" s="299"/>
@@ -17990,7 +17874,7 @@
       <c r="AH21" s="298"/>
       <c r="AI21" s="298"/>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
       <c r="B22" s="301"/>
       <c r="C22" s="299"/>
@@ -18027,7 +17911,7 @@
       <c r="AH22" s="298"/>
       <c r="AI22" s="298"/>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="299"/>
       <c r="C23" s="299"/>
@@ -18064,7 +17948,7 @@
       <c r="AH23" s="298"/>
       <c r="AI23" s="298"/>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="299"/>
       <c r="C24" s="299"/>
@@ -18101,7 +17985,7 @@
       <c r="AH24" s="298"/>
       <c r="AI24" s="298"/>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="299"/>
       <c r="C25" s="299"/>
@@ -18248,112 +18132,112 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="30.6640625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>73</v>
       </c>
